--- a/文档/数值设计.xlsx
+++ b/文档/数值设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="数值" sheetId="16" r:id="rId1"/>
@@ -63,9 +63,6 @@
   <si>
     <t>功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累积大奖</t>
   </si>
   <si>
     <t>百搭图案</t>
@@ -1200,6 +1197,10 @@
       <t>条线。</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积大奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1700,14 +1701,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1727,50 +1770,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2166,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2197,7 +2198,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -2208,21 +2209,21 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="62.45" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -2231,32 +2232,32 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="62.45" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1"/>
@@ -2265,124 +2266,124 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" ht="43.9" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="47.45" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:HR90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E77" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E77" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M78" sqref="M78:N78"/>
     </sheetView>
   </sheetViews>
@@ -2498,108 +2499,108 @@
   <sheetData>
     <row r="4" spans="2:226" ht="18" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:226" ht="18" customHeight="1">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="34">
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="48">
         <v>-1</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="48">
         <v>0</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="48">
         <v>1</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="48">
         <v>2</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="48">
         <v>3</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="48">
         <v>4</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="48">
         <v>5</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="48">
         <v>6</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="48">
         <v>7</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="48">
         <v>8</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="48">
         <v>9</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="48">
         <v>10</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="48">
         <v>11</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="48">
         <v>12</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="48">
         <v>13</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="48">
         <v>14</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="48">
         <v>15</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+    </row>
+    <row r="6" spans="2:226" ht="18" customHeight="1" thickBot="1">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-    </row>
-    <row r="6" spans="2:226" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="11" t="s">
+      <c r="V6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="W6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="X6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="Y6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Z6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="AI6" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="AI6" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:226" ht="18" customHeight="1" thickBot="1">
@@ -6816,543 +6817,543 @@
       <c r="U25" s="24"/>
     </row>
     <row r="26" spans="2:226" ht="18" customHeight="1">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="40" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41" t="s">
+      <c r="H26" s="44"/>
+      <c r="U26" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+    </row>
+    <row r="27" spans="2:226" ht="18" customHeight="1">
+      <c r="C27" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46">
+        <v>15</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46">
+        <v>50</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+    </row>
+    <row r="28" spans="2:226" ht="18" customHeight="1">
+      <c r="C28" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="U26" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-    </row>
-    <row r="27" spans="2:226" ht="18" customHeight="1">
-      <c r="C27" s="42">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42">
-        <v>15</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42">
-        <v>50</v>
-      </c>
-      <c r="H27" s="42"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-    </row>
-    <row r="28" spans="2:226" ht="18" customHeight="1">
-      <c r="C28" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
     </row>
     <row r="29" spans="2:226" ht="18" customHeight="1">
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
     </row>
     <row r="30" spans="2:226" ht="18" customHeight="1">
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40" t="s">
+      <c r="J30" s="42"/>
+      <c r="K30" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40" t="s">
+      <c r="L30" s="42"/>
+      <c r="M30" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="N30" s="40"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
+      <c r="N30" s="42"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
     </row>
     <row r="31" spans="2:226" ht="18" customHeight="1">
-      <c r="C31" s="43">
+      <c r="C31" s="41">
         <v>1807.76</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41">
         <v>1</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43">
+      <c r="F31" s="41"/>
+      <c r="G31" s="41">
         <v>13361.34</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43">
+      <c r="H31" s="41"/>
+      <c r="I31" s="41">
         <v>9283.36</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43">
+      <c r="J31" s="41"/>
+      <c r="K31" s="41">
         <v>16758.96</v>
       </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43">
+      <c r="L31" s="41"/>
+      <c r="M31" s="41">
         <v>24234.560000000001</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
+      <c r="N31" s="41"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
     </row>
     <row r="32" spans="2:226" ht="18" customHeight="1">
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
     </row>
     <row r="33" spans="3:28" ht="18" customHeight="1">
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
     </row>
     <row r="34" spans="3:28" ht="18" customHeight="1">
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
     </row>
     <row r="36" spans="3:28" ht="18" customHeight="1">
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="40"/>
+    </row>
+    <row r="37" spans="3:28" ht="18" customHeight="1">
+      <c r="C37" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="U37" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+    </row>
+    <row r="38" spans="3:28" ht="18" customHeight="1">
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+    </row>
+    <row r="39" spans="3:28" ht="18" customHeight="1">
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+    </row>
+    <row r="40" spans="3:28" ht="18" customHeight="1">
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+    </row>
+    <row r="41" spans="3:28" ht="18" customHeight="1">
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+    </row>
+    <row r="42" spans="3:28" ht="18" customHeight="1">
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+    </row>
+    <row r="43" spans="3:28" ht="18" customHeight="1">
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+    </row>
+    <row r="44" spans="3:28" ht="18" customHeight="1">
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AB44" s="26"/>
+    </row>
+    <row r="45" spans="3:28" ht="18" customHeight="1">
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+    </row>
+    <row r="47" spans="3:28" ht="18" customHeight="1">
+      <c r="U47" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="3:28" ht="18" customHeight="1">
-      <c r="C37" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="U37" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-    </row>
-    <row r="38" spans="3:28" ht="18" customHeight="1">
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-    </row>
-    <row r="39" spans="3:28" ht="18" customHeight="1">
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-    </row>
-    <row r="40" spans="3:28" ht="18" customHeight="1">
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-    </row>
-    <row r="41" spans="3:28" ht="18" customHeight="1">
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-    </row>
-    <row r="42" spans="3:28" ht="18" customHeight="1">
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-    </row>
-    <row r="43" spans="3:28" ht="18" customHeight="1">
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-    </row>
-    <row r="44" spans="3:28" ht="18" customHeight="1">
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AB44" s="26"/>
-    </row>
-    <row r="45" spans="3:28" ht="18" customHeight="1">
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-    </row>
-    <row r="47" spans="3:28" ht="18" customHeight="1">
-      <c r="U47" s="32" t="s">
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+    </row>
+    <row r="48" spans="3:28" ht="18" customHeight="1">
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+    </row>
+    <row r="49" spans="3:28" ht="18" customHeight="1">
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+    </row>
+    <row r="50" spans="3:28" ht="18" customHeight="1">
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+    </row>
+    <row r="51" spans="3:28" ht="18" customHeight="1">
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+    </row>
+    <row r="52" spans="3:28" ht="18" customHeight="1">
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+    </row>
+    <row r="53" spans="3:28" ht="18" customHeight="1">
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="45"/>
+    </row>
+    <row r="54" spans="3:28" ht="18" customHeight="1">
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AB54" s="27"/>
+    </row>
+    <row r="55" spans="3:28" ht="18" customHeight="1">
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="45"/>
+    </row>
+    <row r="56" spans="3:28" ht="18" customHeight="1">
+      <c r="C56" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-    </row>
-    <row r="48" spans="3:28" ht="18" customHeight="1">
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="32"/>
-    </row>
-    <row r="49" spans="3:28" ht="18" customHeight="1">
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-    </row>
-    <row r="50" spans="3:28" ht="18" customHeight="1">
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-    </row>
-    <row r="51" spans="3:28" ht="18" customHeight="1">
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-    </row>
-    <row r="52" spans="3:28" ht="18" customHeight="1">
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-    </row>
-    <row r="53" spans="3:28" ht="18" customHeight="1">
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-    </row>
-    <row r="54" spans="3:28" ht="18" customHeight="1">
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="32"/>
-      <c r="AB54" s="27"/>
-    </row>
-    <row r="55" spans="3:28" ht="18" customHeight="1">
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32"/>
-    </row>
-    <row r="56" spans="3:28" ht="18" customHeight="1">
-      <c r="C56" s="30" t="s">
+      <c r="D56" s="40"/>
+    </row>
+    <row r="57" spans="3:28" ht="18" customHeight="1">
+      <c r="C57" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="3:28" ht="18" customHeight="1">
-      <c r="C57" s="31" t="s">
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="U57" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="U57" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="V57" s="32"/>
-      <c r="W57" s="32"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="32"/>
-      <c r="Z57" s="32"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="45"/>
     </row>
     <row r="58" spans="3:28" ht="18" customHeight="1">
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="32"/>
-      <c r="Z58" s="32"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="45"/>
+      <c r="Z58" s="45"/>
     </row>
     <row r="59" spans="3:28" ht="18" customHeight="1">
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
     </row>
     <row r="60" spans="3:28" ht="18" customHeight="1">
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="32"/>
-      <c r="W60" s="32"/>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="45"/>
     </row>
     <row r="61" spans="3:28" ht="18" customHeight="1">
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="32"/>
-      <c r="Y61" s="32"/>
-      <c r="Z61" s="32"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
     </row>
     <row r="62" spans="3:28" ht="18" customHeight="1">
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="32"/>
-      <c r="W62" s="32"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="32"/>
-      <c r="Z62" s="32"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+      <c r="W62" s="45"/>
+      <c r="X62" s="45"/>
+      <c r="Y62" s="45"/>
+      <c r="Z62" s="45"/>
     </row>
     <row r="63" spans="3:28" ht="18" customHeight="1">
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+      <c r="W63" s="45"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
     </row>
     <row r="64" spans="3:28" ht="18" customHeight="1">
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+      <c r="W64" s="45"/>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45"/>
     </row>
     <row r="65" spans="3:30" ht="18" customHeight="1">
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
     </row>
     <row r="69" spans="3:30" ht="18" customHeight="1">
       <c r="F69" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="3:30" ht="18" customHeight="1">
-      <c r="C71" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="30"/>
+      <c r="C71" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="40"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -7411,960 +7412,805 @@
       </c>
     </row>
     <row r="77" spans="3:30" ht="18" customHeight="1">
-      <c r="C77" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="30"/>
+      <c r="C77" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="40"/>
     </row>
     <row r="78" spans="3:30" ht="18" customHeight="1">
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="E78" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E78" s="44" t="s">
+      <c r="F78" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78" s="39"/>
+      <c r="K78" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="L78" s="39"/>
+      <c r="M78" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="N78" s="39"/>
+      <c r="O78" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="R78" s="37"/>
+      <c r="S78" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="T78" s="37"/>
+      <c r="U78" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="V78" s="35"/>
+      <c r="W78" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD78" s="35"/>
+    </row>
+    <row r="79" spans="3:30" ht="18" customHeight="1">
+      <c r="C79" s="30">
+        <v>100101</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="H78" s="46"/>
-      <c r="I78" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="J78" s="46"/>
-      <c r="K78" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="L78" s="46"/>
-      <c r="M78" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="N78" s="46"/>
-      <c r="O78" s="47" t="s">
+      <c r="E79" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="P78" s="48"/>
-      <c r="Q78" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="R78" s="48"/>
-      <c r="S78" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="T78" s="48"/>
-      <c r="U78" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="V78" s="50"/>
-      <c r="W78" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="X78" s="50"/>
-      <c r="Y78" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z78" s="50"/>
-      <c r="AA78" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB78" s="50"/>
-      <c r="AC78" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD78" s="50"/>
-    </row>
-    <row r="79" spans="3:30" ht="18" customHeight="1">
-      <c r="C79" s="44">
-        <v>100101</v>
-      </c>
-      <c r="D79" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="44" t="s">
+      <c r="F79" s="30"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="35"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="35"/>
+      <c r="AC79" s="34"/>
+      <c r="AD79" s="35"/>
+    </row>
+    <row r="80" spans="3:30" ht="18" customHeight="1">
+      <c r="C80" s="30">
+        <v>100102</v>
+      </c>
+      <c r="D80" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F79" s="44"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="48"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="48"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="48"/>
-      <c r="U79" s="49"/>
-      <c r="V79" s="50"/>
-      <c r="W79" s="49"/>
-      <c r="X79" s="50"/>
-      <c r="Y79" s="49"/>
-      <c r="Z79" s="50"/>
-      <c r="AA79" s="49"/>
-      <c r="AB79" s="50"/>
-      <c r="AC79" s="49"/>
-      <c r="AD79" s="50"/>
-    </row>
-    <row r="80" spans="3:30" ht="18" customHeight="1">
-      <c r="C80" s="44">
-        <v>100102</v>
-      </c>
-      <c r="D80" s="51" t="s">
+      <c r="E80" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="30"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="35"/>
+    </row>
+    <row r="81" spans="3:30" ht="18" customHeight="1">
+      <c r="C81" s="30">
+        <v>100103</v>
+      </c>
+      <c r="D81" s="30">
+        <v>7</v>
+      </c>
+      <c r="E81" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="E80" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="44"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="48"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="48"/>
-      <c r="S80" s="47"/>
-      <c r="T80" s="48"/>
-      <c r="U80" s="49"/>
-      <c r="V80" s="50"/>
-      <c r="W80" s="49"/>
-      <c r="X80" s="50"/>
-      <c r="Y80" s="49"/>
-      <c r="Z80" s="50"/>
-      <c r="AA80" s="49"/>
-      <c r="AB80" s="50"/>
-      <c r="AC80" s="49"/>
-      <c r="AD80" s="50"/>
-    </row>
-    <row r="81" spans="3:30" ht="18" customHeight="1">
-      <c r="C81" s="44">
-        <v>100103</v>
-      </c>
-      <c r="D81" s="44">
-        <v>7</v>
-      </c>
-      <c r="E81" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="44">
+      <c r="F81" s="30">
         <v>350</v>
       </c>
-      <c r="G81" s="45">
+      <c r="G81" s="38">
         <f>F81/F90</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="H81" s="46"/>
-      <c r="I81" s="45">
+      <c r="H81" s="39"/>
+      <c r="I81" s="38">
         <f>POWER(G81,3)*POWER(G89-G81,2)</f>
         <v>1.0421604366362953E-2</v>
       </c>
-      <c r="J81" s="46"/>
-      <c r="K81" s="45">
+      <c r="J81" s="39"/>
+      <c r="K81" s="38">
         <f>POWER(G81,4)*POWER(G89-G81,1)</f>
         <v>3.8395384507652983E-3</v>
       </c>
-      <c r="L81" s="46"/>
-      <c r="M81" s="45">
+      <c r="L81" s="39"/>
+      <c r="M81" s="38">
         <f>POWER(G81,5)</f>
         <v>1.414566797650373E-3</v>
       </c>
-      <c r="N81" s="46"/>
-      <c r="O81" s="47">
+      <c r="N81" s="39"/>
+      <c r="O81" s="36">
         <v>5</v>
       </c>
-      <c r="P81" s="48"/>
-      <c r="Q81" s="47">
+      <c r="P81" s="37"/>
+      <c r="Q81" s="36">
         <v>15</v>
       </c>
-      <c r="R81" s="48"/>
-      <c r="S81" s="47">
+      <c r="R81" s="37"/>
+      <c r="S81" s="36">
         <v>50</v>
       </c>
-      <c r="T81" s="48"/>
-      <c r="U81" s="49">
+      <c r="T81" s="37"/>
+      <c r="U81" s="34">
         <f>O81*I81</f>
         <v>5.2108021831814767E-2</v>
       </c>
-      <c r="V81" s="50"/>
-      <c r="W81" s="49">
+      <c r="V81" s="35"/>
+      <c r="W81" s="34">
         <f>Q81*K81</f>
         <v>5.7593076761479477E-2</v>
       </c>
-      <c r="X81" s="50"/>
-      <c r="Y81" s="49">
+      <c r="X81" s="35"/>
+      <c r="Y81" s="34">
         <f>S81*M81</f>
         <v>7.0728339882518643E-2</v>
       </c>
-      <c r="Z81" s="50"/>
-      <c r="AA81" s="49">
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="34">
         <f>SUM(U81,W81,Y81)</f>
         <v>0.18042943847581289</v>
       </c>
-      <c r="AB81" s="50"/>
-      <c r="AC81" s="49"/>
-      <c r="AD81" s="50"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="34"/>
+      <c r="AD81" s="35"/>
     </row>
     <row r="82" spans="3:30" ht="18" customHeight="1">
-      <c r="C82" s="44">
+      <c r="C82" s="30">
         <v>100104</v>
       </c>
-      <c r="D82" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="44">
+      <c r="D82" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" s="30">
         <v>300</v>
       </c>
-      <c r="G82" s="45">
+      <c r="G82" s="38">
         <f>F82/F90</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="H82" s="46"/>
-      <c r="I82" s="45">
+      <c r="H82" s="39"/>
+      <c r="I82" s="38">
         <f>POWER(G82,3)*POWER(G89-G82,2)</f>
         <v>7.2718850072584192E-3</v>
       </c>
-      <c r="J82" s="46"/>
-      <c r="K82" s="45">
+      <c r="J82" s="39"/>
+      <c r="K82" s="38">
         <f>POWER(G82,4)*POWER(G89-G82,1)</f>
         <v>2.181565502177526E-3</v>
       </c>
-      <c r="L82" s="46"/>
-      <c r="M82" s="45">
+      <c r="L82" s="39"/>
+      <c r="M82" s="38">
         <f t="shared" ref="M82:M88" si="1">POWER(G82,5)</f>
         <v>6.5446965065325791E-4</v>
       </c>
-      <c r="N82" s="46"/>
-      <c r="O82" s="47">
+      <c r="N82" s="39"/>
+      <c r="O82" s="36">
         <v>5</v>
       </c>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="47">
+      <c r="P82" s="37"/>
+      <c r="Q82" s="36">
         <v>15</v>
       </c>
-      <c r="R82" s="48"/>
-      <c r="S82" s="47">
+      <c r="R82" s="37"/>
+      <c r="S82" s="36">
         <v>75</v>
       </c>
-      <c r="T82" s="48"/>
-      <c r="U82" s="49">
+      <c r="T82" s="37"/>
+      <c r="U82" s="34">
         <f>O82*I82</f>
         <v>3.6359425036292095E-2</v>
       </c>
-      <c r="V82" s="50"/>
-      <c r="W82" s="49">
+      <c r="V82" s="35"/>
+      <c r="W82" s="34">
         <f>Q82*K82</f>
         <v>3.2723482532662891E-2</v>
       </c>
-      <c r="X82" s="50"/>
-      <c r="Y82" s="49">
+      <c r="X82" s="35"/>
+      <c r="Y82" s="34">
         <f>S82*M82</f>
         <v>4.908522379899434E-2</v>
       </c>
-      <c r="Z82" s="50"/>
-      <c r="AA82" s="49">
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="34">
         <f>SUM(U82,W82,Y82)</f>
         <v>0.11816813136794933</v>
       </c>
-      <c r="AB82" s="50"/>
-      <c r="AC82" s="49"/>
-      <c r="AD82" s="50"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="34"/>
+      <c r="AD82" s="35"/>
     </row>
     <row r="83" spans="3:30" ht="18" customHeight="1">
-      <c r="C83" s="44">
+      <c r="C83" s="30">
         <v>100105</v>
       </c>
-      <c r="D83" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="44">
+      <c r="D83" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="30">
         <v>250</v>
       </c>
-      <c r="G83" s="45">
+      <c r="G83" s="38">
         <f>F83/F90</f>
         <v>0.19230769230769232</v>
       </c>
-      <c r="H83" s="46"/>
-      <c r="I83" s="45">
+      <c r="H83" s="39"/>
+      <c r="I83" s="38">
         <f>POWER(G83,3)*POWER(G89-G83,2)</f>
         <v>4.63961413223519E-3</v>
       </c>
-      <c r="J83" s="46"/>
-      <c r="K83" s="45">
+      <c r="J83" s="39"/>
+      <c r="K83" s="38">
         <f>POWER(G83,4)*POWER(G89-G83,1)</f>
         <v>1.1046700314845689E-3</v>
       </c>
-      <c r="L83" s="46"/>
-      <c r="M83" s="45">
+      <c r="L83" s="39"/>
+      <c r="M83" s="38">
         <f t="shared" si="1"/>
         <v>2.6301667416299261E-4</v>
       </c>
-      <c r="N83" s="46"/>
-      <c r="O83" s="47">
+      <c r="N83" s="39"/>
+      <c r="O83" s="36">
         <v>5</v>
       </c>
-      <c r="P83" s="48"/>
-      <c r="Q83" s="47">
+      <c r="P83" s="37"/>
+      <c r="Q83" s="36">
         <v>20</v>
       </c>
-      <c r="R83" s="48"/>
-      <c r="S83" s="47">
+      <c r="R83" s="37"/>
+      <c r="S83" s="36">
         <v>100</v>
       </c>
-      <c r="T83" s="48"/>
-      <c r="U83" s="49">
+      <c r="T83" s="37"/>
+      <c r="U83" s="34">
         <f>O83*I83</f>
         <v>2.3198070661175949E-2</v>
       </c>
-      <c r="V83" s="50"/>
-      <c r="W83" s="49">
+      <c r="V83" s="35"/>
+      <c r="W83" s="34">
         <f>Q83*K83</f>
         <v>2.2093400629691378E-2</v>
       </c>
-      <c r="X83" s="50"/>
-      <c r="Y83" s="49">
+      <c r="X83" s="35"/>
+      <c r="Y83" s="34">
         <f>S83*M83</f>
         <v>2.630166741629926E-2</v>
       </c>
-      <c r="Z83" s="50"/>
-      <c r="AA83" s="49">
-        <f t="shared" ref="AA82:AA89" si="2">SUM(U83,W83,Y83)</f>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="34">
+        <f t="shared" ref="AA83:AA88" si="2">SUM(U83,W83,Y83)</f>
         <v>7.159313870716659E-2</v>
       </c>
-      <c r="AB83" s="50"/>
-      <c r="AC83" s="49"/>
-      <c r="AD83" s="50"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="34"/>
+      <c r="AD83" s="35"/>
     </row>
     <row r="84" spans="3:30" ht="18" customHeight="1">
-      <c r="C84" s="44">
+      <c r="C84" s="30">
         <v>100106</v>
       </c>
-      <c r="D84" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" s="44">
+      <c r="D84" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="30">
         <v>130</v>
       </c>
-      <c r="G84" s="45">
+      <c r="G84" s="38">
         <f>F84/F90</f>
         <v>0.1</v>
       </c>
-      <c r="H84" s="46"/>
-      <c r="I84" s="45">
+      <c r="H84" s="39"/>
+      <c r="I84" s="38">
         <f>POWER(G84,3)*POWER(G89-G84,2)</f>
         <v>8.1000000000000028E-4</v>
       </c>
-      <c r="J84" s="46"/>
-      <c r="K84" s="45">
+      <c r="J84" s="39"/>
+      <c r="K84" s="38">
         <f>POWER(G84,4)*POWER(G89-G84,1)</f>
         <v>9.0000000000000046E-5</v>
       </c>
-      <c r="L84" s="46"/>
-      <c r="M84" s="45">
+      <c r="L84" s="39"/>
+      <c r="M84" s="38">
         <f t="shared" si="1"/>
         <v>1.0000000000000006E-5</v>
       </c>
-      <c r="N84" s="46"/>
-      <c r="O84" s="47">
+      <c r="N84" s="39"/>
+      <c r="O84" s="36">
         <v>5</v>
       </c>
-      <c r="P84" s="48"/>
-      <c r="Q84" s="47">
+      <c r="P84" s="37"/>
+      <c r="Q84" s="36">
         <v>25</v>
       </c>
-      <c r="R84" s="48"/>
-      <c r="S84" s="47">
+      <c r="R84" s="37"/>
+      <c r="S84" s="36">
         <v>125</v>
       </c>
-      <c r="T84" s="48"/>
-      <c r="U84" s="49">
+      <c r="T84" s="37"/>
+      <c r="U84" s="34">
         <f>O84*I84</f>
         <v>4.0500000000000015E-3</v>
       </c>
-      <c r="V84" s="50"/>
-      <c r="W84" s="49">
+      <c r="V84" s="35"/>
+      <c r="W84" s="34">
         <f>Q84*K84</f>
         <v>2.2500000000000011E-3</v>
       </c>
-      <c r="X84" s="50"/>
-      <c r="Y84" s="49">
+      <c r="X84" s="35"/>
+      <c r="Y84" s="34">
         <f>S84*M84</f>
         <v>1.2500000000000007E-3</v>
       </c>
-      <c r="Z84" s="50"/>
-      <c r="AA84" s="49">
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="34">
         <f t="shared" si="2"/>
         <v>7.5500000000000029E-3</v>
       </c>
-      <c r="AB84" s="50"/>
-      <c r="AC84" s="49"/>
-      <c r="AD84" s="50"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="35"/>
     </row>
     <row r="85" spans="3:30" ht="18" customHeight="1">
-      <c r="C85" s="44">
+      <c r="C85" s="30">
         <v>100107</v>
       </c>
-      <c r="D85" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" s="44">
+      <c r="D85" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="30">
         <v>100</v>
       </c>
-      <c r="G85" s="45">
+      <c r="G85" s="38">
         <f>F85/F90</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="H85" s="46"/>
-      <c r="I85" s="45">
+      <c r="H85" s="39"/>
+      <c r="I85" s="38">
         <f>POWER(G85,3)*POWER(G89-G85,2)</f>
         <v>3.8783386705378242E-4</v>
       </c>
-      <c r="J85" s="46"/>
-      <c r="K85" s="45">
+      <c r="J85" s="39"/>
+      <c r="K85" s="38">
         <f>POWER(G85,4)*POWER(G89-G85,1)</f>
         <v>3.2319488921148535E-5</v>
       </c>
-      <c r="L85" s="46"/>
-      <c r="M85" s="45">
+      <c r="L85" s="39"/>
+      <c r="M85" s="38">
         <f t="shared" si="1"/>
         <v>2.6932907434290447E-6</v>
       </c>
-      <c r="N85" s="46"/>
-      <c r="O85" s="47">
+      <c r="N85" s="39"/>
+      <c r="O85" s="36">
         <v>5</v>
       </c>
-      <c r="P85" s="48"/>
-      <c r="Q85" s="47">
+      <c r="P85" s="37"/>
+      <c r="Q85" s="36">
         <v>30</v>
       </c>
-      <c r="R85" s="48"/>
-      <c r="S85" s="47">
+      <c r="R85" s="37"/>
+      <c r="S85" s="36">
         <v>150</v>
       </c>
-      <c r="T85" s="48"/>
-      <c r="U85" s="49">
-        <f t="shared" ref="U82:U88" si="3">O85*I85</f>
+      <c r="T85" s="37"/>
+      <c r="U85" s="34">
+        <f t="shared" ref="U85:U88" si="3">O85*I85</f>
         <v>1.9391693352689122E-3</v>
       </c>
-      <c r="V85" s="50"/>
-      <c r="W85" s="49">
-        <f t="shared" ref="W82:W88" si="4">Q85*K85</f>
+      <c r="V85" s="35"/>
+      <c r="W85" s="34">
+        <f t="shared" ref="W85:W88" si="4">Q85*K85</f>
         <v>9.6958466763445608E-4</v>
       </c>
-      <c r="X85" s="50"/>
-      <c r="Y85" s="49">
-        <f t="shared" ref="Y82:Y88" si="5">S85*M85</f>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="34">
+        <f t="shared" ref="Y85:Y88" si="5">S85*M85</f>
         <v>4.0399361151435674E-4</v>
       </c>
-      <c r="Z85" s="50"/>
-      <c r="AA85" s="49">
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="34">
         <f t="shared" si="2"/>
         <v>3.3127476144177246E-3</v>
       </c>
-      <c r="AB85" s="50"/>
-      <c r="AC85" s="49"/>
-      <c r="AD85" s="50"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="34"/>
+      <c r="AD85" s="35"/>
     </row>
     <row r="86" spans="3:30" ht="18" customHeight="1">
-      <c r="C86" s="44">
+      <c r="C86" s="30">
         <v>100108</v>
       </c>
-      <c r="D86" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E86" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F86" s="44">
+      <c r="D86" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" s="30">
         <v>80</v>
       </c>
-      <c r="G86" s="45">
+      <c r="G86" s="38">
         <f>F86/F90</f>
         <v>6.1538461538461542E-2</v>
       </c>
-      <c r="H86" s="46"/>
-      <c r="I86" s="45">
+      <c r="H86" s="39"/>
+      <c r="I86" s="38">
         <f>POWER(G86,3)*POWER(G89-G86,2)</f>
         <v>2.0524512985701322E-4</v>
       </c>
-      <c r="J86" s="46"/>
-      <c r="K86" s="45">
+      <c r="J86" s="39"/>
+      <c r="K86" s="38">
         <f>POWER(G86,4)*POWER(G89-G86,1)</f>
         <v>1.3458697039804147E-5</v>
       </c>
-      <c r="L86" s="46"/>
-      <c r="M86" s="45">
+      <c r="L86" s="39"/>
+      <c r="M86" s="38">
         <f t="shared" si="1"/>
         <v>8.825375108068293E-7</v>
       </c>
-      <c r="N86" s="46"/>
-      <c r="O86" s="47">
+      <c r="N86" s="39"/>
+      <c r="O86" s="36">
         <v>10</v>
       </c>
-      <c r="P86" s="48"/>
-      <c r="Q86" s="47">
+      <c r="P86" s="37"/>
+      <c r="Q86" s="36">
         <v>50</v>
       </c>
-      <c r="R86" s="48"/>
-      <c r="S86" s="47">
+      <c r="R86" s="37"/>
+      <c r="S86" s="36">
         <v>200</v>
       </c>
-      <c r="T86" s="48"/>
-      <c r="U86" s="49">
+      <c r="T86" s="37"/>
+      <c r="U86" s="34">
         <f t="shared" si="3"/>
         <v>2.0524512985701324E-3</v>
       </c>
-      <c r="V86" s="50"/>
-      <c r="W86" s="49">
+      <c r="V86" s="35"/>
+      <c r="W86" s="34">
         <f t="shared" si="4"/>
         <v>6.7293485199020737E-4</v>
       </c>
-      <c r="X86" s="50"/>
-      <c r="Y86" s="49">
+      <c r="X86" s="35"/>
+      <c r="Y86" s="34">
         <f t="shared" si="5"/>
         <v>1.7650750216136586E-4</v>
       </c>
-      <c r="Z86" s="50"/>
-      <c r="AA86" s="49">
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="34">
         <f t="shared" si="2"/>
         <v>2.9018936527217057E-3</v>
       </c>
-      <c r="AB86" s="50"/>
-      <c r="AC86" s="49"/>
-      <c r="AD86" s="50"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="34"/>
+      <c r="AD86" s="35"/>
     </row>
     <row r="87" spans="3:30" ht="18" customHeight="1">
-      <c r="C87" s="44">
+      <c r="C87" s="30">
         <v>100109</v>
       </c>
-      <c r="D87" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E87" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F87" s="44">
+      <c r="D87" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="30">
         <v>50</v>
       </c>
-      <c r="G87" s="45">
+      <c r="G87" s="38">
         <f>F87/F90</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="H87" s="46"/>
-      <c r="I87" s="45">
+      <c r="H87" s="39"/>
+      <c r="I87" s="38">
         <f>POWER(G87,3)*POWER(G89-G87,2)</f>
         <v>5.2603334832598521E-5</v>
       </c>
-      <c r="J87" s="46"/>
-      <c r="K87" s="45">
+      <c r="J87" s="39"/>
+      <c r="K87" s="38">
         <f>POWER(G87,4)*POWER(G89-G87,1)</f>
         <v>2.1041333933039411E-6</v>
       </c>
-      <c r="L87" s="46"/>
-      <c r="M87" s="45">
+      <c r="L87" s="39"/>
+      <c r="M87" s="38">
         <f t="shared" si="1"/>
         <v>8.4165335732157648E-8</v>
       </c>
-      <c r="N87" s="46"/>
-      <c r="O87" s="47">
+      <c r="N87" s="39"/>
+      <c r="O87" s="36">
         <v>10</v>
       </c>
-      <c r="P87" s="48"/>
-      <c r="Q87" s="47">
+      <c r="P87" s="37"/>
+      <c r="Q87" s="36">
         <v>75</v>
       </c>
-      <c r="R87" s="48"/>
-      <c r="S87" s="47">
+      <c r="R87" s="37"/>
+      <c r="S87" s="36">
         <v>300</v>
       </c>
-      <c r="T87" s="48"/>
-      <c r="U87" s="49">
+      <c r="T87" s="37"/>
+      <c r="U87" s="34">
         <f t="shared" si="3"/>
         <v>5.2603334832598521E-4</v>
       </c>
-      <c r="V87" s="50"/>
-      <c r="W87" s="49">
+      <c r="V87" s="35"/>
+      <c r="W87" s="34">
         <f t="shared" si="4"/>
         <v>1.5781000449779559E-4</v>
       </c>
-      <c r="X87" s="50"/>
-      <c r="Y87" s="49">
+      <c r="X87" s="35"/>
+      <c r="Y87" s="34">
         <f t="shared" si="5"/>
         <v>2.5249600719647296E-5</v>
       </c>
-      <c r="Z87" s="50"/>
-      <c r="AA87" s="49">
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="34">
         <f t="shared" si="2"/>
         <v>7.0909295354342806E-4</v>
       </c>
-      <c r="AB87" s="50"/>
-      <c r="AC87" s="49"/>
-      <c r="AD87" s="50"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="34"/>
+      <c r="AD87" s="35"/>
     </row>
     <row r="88" spans="3:30" ht="18" customHeight="1">
-      <c r="C88" s="44">
+      <c r="C88" s="30">
         <v>100110</v>
       </c>
-      <c r="D88" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F88" s="44">
+      <c r="D88" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" s="30">
         <v>40</v>
       </c>
-      <c r="G88" s="45">
+      <c r="G88" s="38">
         <f>F88/F90</f>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="H88" s="46"/>
-      <c r="I88" s="45">
+      <c r="H88" s="39"/>
+      <c r="I88" s="38">
         <f>POWER(G88,3)*POWER(G89-G88,2)</f>
         <v>2.7365557659314885E-5</v>
       </c>
-      <c r="J88" s="46"/>
-      <c r="K88" s="45">
+      <c r="J88" s="39"/>
+      <c r="K88" s="38">
         <f>POWER(G88,4)*POWER(G89-G88,1)</f>
         <v>8.687478622004726E-7</v>
       </c>
-      <c r="L88" s="46"/>
-      <c r="M88" s="45">
+      <c r="L88" s="39"/>
+      <c r="M88" s="38">
         <f t="shared" si="1"/>
         <v>2.7579297212713416E-8</v>
       </c>
-      <c r="N88" s="46"/>
-      <c r="O88" s="47">
+      <c r="N88" s="39"/>
+      <c r="O88" s="36">
         <v>15</v>
       </c>
-      <c r="P88" s="48"/>
-      <c r="Q88" s="47">
+      <c r="P88" s="37"/>
+      <c r="Q88" s="36">
         <v>100</v>
       </c>
-      <c r="R88" s="48"/>
-      <c r="S88" s="47">
+      <c r="R88" s="37"/>
+      <c r="S88" s="36">
         <v>500</v>
       </c>
-      <c r="T88" s="48"/>
-      <c r="U88" s="49">
+      <c r="T88" s="37"/>
+      <c r="U88" s="34">
         <f t="shared" si="3"/>
         <v>4.1048336488972326E-4</v>
       </c>
-      <c r="V88" s="50"/>
-      <c r="W88" s="49">
+      <c r="V88" s="35"/>
+      <c r="W88" s="34">
         <f t="shared" si="4"/>
         <v>8.6874786220047259E-5</v>
       </c>
-      <c r="X88" s="50"/>
-      <c r="Y88" s="49">
+      <c r="X88" s="35"/>
+      <c r="Y88" s="34">
         <f t="shared" si="5"/>
         <v>1.3789648606356708E-5</v>
       </c>
-      <c r="Z88" s="50"/>
-      <c r="AA88" s="49">
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="34">
         <f t="shared" si="2"/>
         <v>5.1114779971612729E-4</v>
       </c>
-      <c r="AB88" s="50"/>
-      <c r="AC88" s="49"/>
-      <c r="AD88" s="50"/>
+      <c r="AB88" s="35"/>
+      <c r="AC88" s="34"/>
+      <c r="AD88" s="35"/>
     </row>
     <row r="89" spans="3:30" ht="18" customHeight="1">
-      <c r="C89" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="44">
+      <c r="C89" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="30">
         <v>8</v>
       </c>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="45">
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="38">
         <f>SUM(G81,G82,G83,G84,G85,G86,G87,G88)</f>
         <v>1</v>
       </c>
-      <c r="H89" s="46"/>
-      <c r="I89" s="45">
+      <c r="H89" s="39"/>
+      <c r="I89" s="38">
         <f>SUM(I81,I82,I83,I84,I85,I86,I87,I88)</f>
         <v>2.3816151395259277E-2</v>
       </c>
-      <c r="J89" s="46"/>
-      <c r="K89" s="45">
+      <c r="J89" s="39"/>
+      <c r="K89" s="38">
         <f>SUM(K81,K82,K83,K84,K85,K86,K87,K88)</f>
         <v>7.2645250516438498E-3</v>
       </c>
-      <c r="L89" s="46"/>
-      <c r="M89" s="45">
+      <c r="L89" s="39"/>
+      <c r="M89" s="38">
         <f>SUM(M81,M82,M83,M84,M85,M86,M87,M88)</f>
         <v>2.3457406953538043E-3</v>
       </c>
-      <c r="N89" s="46"/>
-      <c r="O89" s="47"/>
-      <c r="P89" s="48"/>
-      <c r="Q89" s="47"/>
-      <c r="R89" s="48"/>
-      <c r="S89" s="47"/>
-      <c r="T89" s="48"/>
-      <c r="U89" s="49">
+      <c r="N89" s="39"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="34">
         <f>SUM(U81,U82,U83,U84,U85,U86,U87,U88)</f>
         <v>0.12064365487633757</v>
       </c>
-      <c r="V89" s="50"/>
-      <c r="W89" s="49">
+      <c r="V89" s="35"/>
+      <c r="W89" s="34">
         <f>SUM(W81,W82,W83,W84,W85,W86,W87,W88)</f>
         <v>0.11654716423417626</v>
       </c>
-      <c r="X89" s="50"/>
-      <c r="Y89" s="49">
+      <c r="X89" s="35"/>
+      <c r="Y89" s="34">
         <f>SUM(Y81,Y82,Y83,Y84,Y85,Y86,Y87,Y88)</f>
         <v>0.14798477146081396</v>
       </c>
-      <c r="Z89" s="50"/>
-      <c r="AA89" s="49">
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="34">
         <f>SUM(AA81,AA82,AA83,AA84,AA85,AA86,AA87,AA8)</f>
         <v>0.38466444277161171</v>
       </c>
-      <c r="AB89" s="50"/>
-      <c r="AC89" s="49"/>
-      <c r="AD89" s="50"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="34"/>
+      <c r="AD89" s="35"/>
     </row>
     <row r="90" spans="3:30" ht="18" customHeight="1">
-      <c r="C90" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44">
+      <c r="C90" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30">
         <f>F81+F82+F83+F84+F85+F86+F87+F88</f>
         <v>1300</v>
       </c>
-      <c r="G90" s="45"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="52">
+      <c r="G90" s="38"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="32">
         <f>SUM(I89,K89,M89)</f>
         <v>3.3426417142256928E-2</v>
       </c>
-      <c r="N90" s="53"/>
-      <c r="O90" s="47"/>
-      <c r="P90" s="48"/>
-      <c r="Q90" s="47"/>
-      <c r="R90" s="48"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="48"/>
-      <c r="U90" s="49"/>
-      <c r="V90" s="50"/>
-      <c r="W90" s="49"/>
-      <c r="X90" s="50"/>
-      <c r="Y90" s="49"/>
-      <c r="Z90" s="50"/>
-      <c r="AA90" s="49">
+      <c r="N90" s="33"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="34"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="34"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="34">
         <f>SUM(U89,W89,Y89)</f>
         <v>0.38517559057132778</v>
       </c>
-      <c r="AB90" s="50"/>
-      <c r="AC90" s="49">
+      <c r="AB90" s="35"/>
+      <c r="AC90" s="34">
         <f>1/D89</f>
         <v>0.125</v>
       </c>
-      <c r="AD90" s="50"/>
+      <c r="AD90" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="203">
-    <mergeCell ref="AC88:AD88"/>
-    <mergeCell ref="AC89:AD89"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC86:AD86"/>
-    <mergeCell ref="AC87:AD87"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="W90:X90"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="AA78:AB78"/>
-    <mergeCell ref="AA79:AB79"/>
-    <mergeCell ref="AA80:AB80"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AA82:AB82"/>
-    <mergeCell ref="AA83:AB83"/>
-    <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AA85:AB85"/>
-    <mergeCell ref="AA86:AB86"/>
-    <mergeCell ref="AA87:AB87"/>
-    <mergeCell ref="AA88:AB88"/>
-    <mergeCell ref="AA89:AB89"/>
-    <mergeCell ref="AA90:AB90"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="Y88:Z88"/>
-    <mergeCell ref="U89:V89"/>
-    <mergeCell ref="W89:X89"/>
-    <mergeCell ref="Y89:Z89"/>
-    <mergeCell ref="W86:X86"/>
-    <mergeCell ref="Y86:Z86"/>
-    <mergeCell ref="U87:V87"/>
-    <mergeCell ref="W87:X87"/>
-    <mergeCell ref="Y87:Z87"/>
-    <mergeCell ref="W84:X84"/>
-    <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="U85:V85"/>
-    <mergeCell ref="W85:X85"/>
-    <mergeCell ref="Y85:Z85"/>
-    <mergeCell ref="W82:X82"/>
-    <mergeCell ref="Y82:Z82"/>
-    <mergeCell ref="U83:V83"/>
-    <mergeCell ref="W83:X83"/>
-    <mergeCell ref="Y83:Z83"/>
-    <mergeCell ref="W80:X80"/>
-    <mergeCell ref="Y80:Z80"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="W81:X81"/>
-    <mergeCell ref="Y81:Z81"/>
-    <mergeCell ref="W78:X78"/>
-    <mergeCell ref="Y78:Z78"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="W79:X79"/>
-    <mergeCell ref="Y79:Z79"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="U78:V78"/>
-    <mergeCell ref="U80:V80"/>
-    <mergeCell ref="U82:V82"/>
-    <mergeCell ref="U84:V84"/>
-    <mergeCell ref="U86:V86"/>
-    <mergeCell ref="U88:V88"/>
-    <mergeCell ref="U90:V90"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C57:N63"/>
+    <mergeCell ref="U57:Z65"/>
+    <mergeCell ref="U37:Z45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:N38"/>
+    <mergeCell ref="U47:Z55"/>
+    <mergeCell ref="C56:D56"/>
     <mergeCell ref="U5:Z5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
@@ -8389,18 +8235,173 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C57:N63"/>
-    <mergeCell ref="U57:Z65"/>
-    <mergeCell ref="U37:Z45"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:N38"/>
-    <mergeCell ref="U47:Z55"/>
-    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="U78:V78"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="U84:V84"/>
+    <mergeCell ref="U86:V86"/>
+    <mergeCell ref="U88:V88"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="U83:V83"/>
+    <mergeCell ref="W83:X83"/>
+    <mergeCell ref="Y83:Z83"/>
+    <mergeCell ref="W80:X80"/>
+    <mergeCell ref="Y80:Z80"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="W81:X81"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="W78:X78"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="W79:X79"/>
+    <mergeCell ref="Y79:Z79"/>
+    <mergeCell ref="U89:V89"/>
+    <mergeCell ref="W89:X89"/>
+    <mergeCell ref="Y89:Z89"/>
+    <mergeCell ref="W86:X86"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="W87:X87"/>
+    <mergeCell ref="Y87:Z87"/>
+    <mergeCell ref="W84:X84"/>
+    <mergeCell ref="Y84:Z84"/>
+    <mergeCell ref="U85:V85"/>
+    <mergeCell ref="W85:X85"/>
+    <mergeCell ref="Y85:Z85"/>
+    <mergeCell ref="W90:X90"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="AA78:AB78"/>
+    <mergeCell ref="AA79:AB79"/>
+    <mergeCell ref="AA80:AB80"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AA82:AB82"/>
+    <mergeCell ref="AA83:AB83"/>
+    <mergeCell ref="AA84:AB84"/>
+    <mergeCell ref="AA85:AB85"/>
+    <mergeCell ref="AA86:AB86"/>
+    <mergeCell ref="AA87:AB87"/>
+    <mergeCell ref="AA88:AB88"/>
+    <mergeCell ref="AA89:AB89"/>
+    <mergeCell ref="AA90:AB90"/>
+    <mergeCell ref="W88:X88"/>
+    <mergeCell ref="Y88:Z88"/>
+    <mergeCell ref="W82:X82"/>
+    <mergeCell ref="Y82:Z82"/>
+    <mergeCell ref="AC88:AD88"/>
+    <mergeCell ref="AC89:AD89"/>
+    <mergeCell ref="AC90:AD90"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="AC84:AD84"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC86:AD86"/>
+    <mergeCell ref="AC87:AD87"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="AC82:AD82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B7:B23">
